--- a/eph/canasta/canastas_eph.xlsx
+++ b/eph/canasta/canastas_eph.xlsx
@@ -56,7 +56,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,6 +79,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,7 +103,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -121,9 +127,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,18 +145,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -152,1312 +163,1468 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1367.11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>1205.31</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>1246.58</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>1224.64</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>1367.94</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>1412.49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>1420.09</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>1246.17</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>1288.41</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>1269.25</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>1418.83</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>1465.19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>1474.95</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>1296.54</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>1336.31</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>1320.14</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>1475.38</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>1524.29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>1512.07</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>1332.49</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>1370.11</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>1356.85</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>1514.28</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>1560.38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>1514.53</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>1333.91</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>1371.62</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>1358.29</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>1514.96</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>1556.96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>1561.35</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>1369.37</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>1404.27</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>1398.2</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>1562.75</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>1604.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>1614.32</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>1413.77</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>1447.63</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>1445.22</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>1614.33</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>1661.42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>1666.48</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>1458.24</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>1496.21</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>1494.04</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>1660.19</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>1713.67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>1675.05</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>1459.38</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>1501.91</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>1496.09</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>1662.99</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>1723.86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>1711.22</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>1498.62</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>1540.68</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>1536.29</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>1705.31</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>1767.89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>1739.34</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>1516.82</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>1559.51</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>1559</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>1731.84</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>1797.44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>1762.65</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>1532.67</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>1573.18</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>1577.67</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>1753.27</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>1819.64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>1766.62</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>1526.86</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>1571.59</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>1574.22</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>1754.08</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>1822.96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>1789.15</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>1541.73</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>1590.44</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>1595.31</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>1777.09</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>1848.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>1821.02</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>1570.68</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>1620.35</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>1628.44</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>1810.32</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>1882.42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>1876.56</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>1623.37</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>1672.78</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>1681.49</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>1863.58</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="2" t="n">
         <v>1939.76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>1915.47</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>1661.21</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>1709.08</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>1713.91</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>1901.16</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="2" t="n">
         <v>1975.67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>1937.24</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>1681.95</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>1729.4</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>1731.7</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>1922</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="2" t="n">
         <v>1994.94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>1956.42</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>1698.68</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>1743.77</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>1747.95</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>1940.78</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2" t="n">
         <v>2012.13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>1984.64</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>1718.31</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>1761.4</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <v>1767.82</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>1965.17</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="2" t="n">
         <v>2034.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>2021.98</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>1756.04</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>1796.81</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <v>1805.99</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>2007.97</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="2" t="n">
         <v>2074.38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>2049.39</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>1783.48</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>1821.54</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>1830.78</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>2037.82</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2" t="n">
         <v>2101.72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>2079.23</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>1812.72</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>1851.72</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <v>1860.27</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>2071.1</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="2" t="n">
         <v>2137.17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>2125.84</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>1852.43</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>1895.81</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <v>1900.71</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>2117.11</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="2" t="n">
         <v>2192.85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>2150.29</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>1870.58</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>1917.87</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2" t="n">
         <v>1920.79</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>2141.51</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="2" t="n">
         <v>2221.58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>2197.26</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>1915.21</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>1960.18</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="2" t="n">
         <v>1966.81</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>2192.22</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="2" t="n">
         <v>2271.64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>2261.23</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>1969.15</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>2018.26</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="2" t="n">
         <v>2022.41</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>2251.13</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="2" t="n">
         <v>2343.56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>2294.56</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>1996.76</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>2047.14</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="2" t="n">
         <v>2048.43</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>2277.22</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="2" t="n">
         <v>2367.11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>2308.11</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>2000.01</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>2054.76</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>2054.74</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>2284.59</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="2" t="n">
         <v>2373.69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>2418.65</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>2088.54</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>2153.6</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="2" t="n">
         <v>2153.78</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>2389.73</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="2" t="n">
         <v>2493.44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>2537.45</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>2199.69</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>2262.7</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="2" t="n">
         <v>2265.26</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>2508.45</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="2" t="n">
         <v>2615.63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>2627.37</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>2292.29</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>2349.38</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="2" t="n">
         <v>2355.98</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>2606.91</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2" t="n">
         <v>2710.54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>2701.48</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>2361.61</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>2414.6</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="2" t="n">
         <v>2421.94</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>2683.06</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="2" t="n">
         <v>2782.76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>2931.88</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>2557.36</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>2620.84</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="2" t="n">
         <v>2622.96</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>2901.79</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="2" t="n">
         <v>3015.31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>3150.62</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>2738.89</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>2810.69</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="2" t="n">
         <v>2819.87</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>3119.33</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="2" t="n">
         <v>3242.01</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>3276.02</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>2844.81</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>2922.84</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="2" t="n">
         <v>2934.83</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>3248.55</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2" t="n">
         <v>3387.27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>3300.17</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>2852.75</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>2925.5</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2" t="n">
         <v>2942.7</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>3269.58</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="2" t="n">
         <v>3393.87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>3423.03</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="2" t="n">
         <v>2954.56</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>3033.1</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="2" t="n">
         <v>3048.81</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>3392.7</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="2" t="n">
         <v>3521.68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>3597.77</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="2" t="n">
         <v>3111.35</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>3193.74</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="2" t="n">
         <v>3198.47</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>3562.34</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="2" t="n">
         <v>3694.36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>3767.01</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="2" t="n">
         <v>3270.34</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>3338.64</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="2" t="n">
         <v>3342.65</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>3726.12</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="2" t="n">
         <v>3850.73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>3833.28</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="2" t="n">
         <v>3316.91</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>3386.24</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="2" t="n">
         <v>3389.35</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>3779.39</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="2" t="n">
         <v>3906.06</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>3911.58</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="2" t="n">
         <v>3382.58</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>3455.83</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2" t="n">
         <v>3456.88</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>3852.08</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="2" t="n">
         <v>3986.32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <v>4016.09</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="2" t="n">
         <v>3490.67</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>3571.74</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="2" t="n">
         <v>3571.23</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>3969.84</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="2" t="n">
         <v>4122.05</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>4133.91</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="2" t="n">
         <v>3580.41</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>3667.14</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="2" t="n">
         <v>3665.51</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>4079.86</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="2" t="n">
         <v>4242.66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>4290.72</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="2" t="n">
         <v>3734.47</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>3837.66</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>3810.58</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>4236.45</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2" t="n">
         <v>4440.51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>4502.88</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="2" t="n">
         <v>3940.39</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>4054.18</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="2" t="n">
         <v>4019.27</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>4452.3</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="2" t="n">
         <v>4702.18</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>4596.2</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="2" t="n">
         <v>4016.75</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>4128.29</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="2" t="n">
         <v>4107.17</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>4553.55</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2" t="n">
         <v>4794.87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>4886.34</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="2" t="n">
         <v>4287.16</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>4402.7</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="2" t="n">
         <v>4373.56</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>4851.67</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="2" t="n">
         <v>5090.92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>5043.41</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="2" t="n">
         <v>4397.95</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>4518.72</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="2" t="n">
         <v>4489.88</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>5004</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="2" t="n">
         <v>5226.02</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>5332.94</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>4607.7416</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>4750.36612</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>4724.66654</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>5276.45024</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>5510.6091</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>5432.32</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>4715.2336</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>4877.37026</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>4842.61398</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>5389.07888</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>5661.46035</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>5615.94</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>4903.2016</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>5050.68426</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>5014.60578</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>5586.23328</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>5846.7771</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>5791.79</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>5032.984</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>5162.86242</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>5128.77583</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>5719.48832</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>5972.4882</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>5785.01</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>5021.1216</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>5149.70672</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>5112.425</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>5705.43216</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>5952.6162</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>5834.66</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>5074.0624</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>5198.00116</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>5159.45931</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>5757.10672</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>5997.44205</v>
       </c>
     </row>
   </sheetData>
@@ -1476,1320 +1643,1476 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>2.12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>2.57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>2.58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>2.15</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>2.46</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>2.63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>2.16</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>2.46</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>2.61</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>2.22</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>2.23</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>2.73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>2.59</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="2" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="2" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>2.61</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="2" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>2.61</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2" t="n">
         <v>2.79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <v>2.61</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="2" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="2" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="2" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="2" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="2" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="2" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="2" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="2" t="n">
         <v>2.86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>2.72</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="2" t="n">
         <v>2.86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="2" t="n">
         <v>2.64</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2" t="n">
         <v>2.81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="2" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="2" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="2" t="n">
         <v>2.64</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="2" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="2" t="n">
         <v>2.63</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="2" t="n">
         <v>2.81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="2" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="2" t="n">
         <v>2.68</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="2" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="2" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>2.51</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>2.49</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="2" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>2.34</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="2" t="n">
         <v>2.84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>2.76</v>
       </c>
     </row>
   </sheetData>
@@ -2808,1320 +3131,1476 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>3103.34</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>2531.15</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>2642.75</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>2951.38</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>3105.22</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>3630.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>3237.81</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>2629.42</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>2744.31</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>3071.59</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>3234.93</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>3780.19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>3407.13</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>2787.56</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>2899.79</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>3247.54</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>3408.13</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>4008.88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>3492.88</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>2851.53</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>2959.44</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>3337.85</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>3497.99</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>4088.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>3665.16</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>2987.96</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>3099.86</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>3504.39</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>3666.2</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>4281.64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>3825.31</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>3122.16</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>3229.82</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>3649.3</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>3828.74</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>4459.95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>3938.94</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>3209.26</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>3315.07</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>3757.57</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>3938.97</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>4602.13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>4032.88</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>3281.04</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>3396.4</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>3854.62</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>4017.66</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>4712.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>4036.87</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>3269.01</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>3394.32</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>3844.95</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>4007.81</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>4723.38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>4089.82</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>3326.94</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>3451.12</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>3917.54</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>4075.69</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>4790.98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>4191.81</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>3397.68</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>3524.49</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>4006.63</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>4173.73</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>4924.99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>4247.99</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>3417.85</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>3539.66</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>4038.84</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>4225.38</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>4967.62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>4257.55</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>3420.17</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>3551.79</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2" t="n">
         <v>4045.75</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="2" t="n">
         <v>4227.33</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="2" t="n">
         <v>4994.91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>4311.85</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>3453.48</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>3594.39</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="2" t="n">
         <v>4099.95</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>4282.79</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="2" t="n">
         <v>5064.89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>4425.08</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>3549.74</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>3694.4</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>4217.66</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="2" t="n">
         <v>4399.08</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="2" t="n">
         <v>5195.48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>4560.04</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>3652.58</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>3797.21</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="2" t="n">
         <v>4338.24</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="2" t="n">
         <v>4528.5</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="2" t="n">
         <v>5334.34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>4692.9</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>3770.95</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>3913.79</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>4456.17</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>4638.83</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="2" t="n">
         <v>5492.36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>4746.24</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>3818.03</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>3960.33</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="2" t="n">
         <v>4519.74</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="2" t="n">
         <v>4708.9</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="2" t="n">
         <v>5545.93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>4793.23</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>3872.99</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>4010.67</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="2" t="n">
         <v>4562.15</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="2" t="n">
         <v>4754.91</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="2" t="n">
         <v>5613.84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>4862.37</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>3917.75</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>4051.22</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="2" t="n">
         <v>4614.01</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="2" t="n">
         <v>4814.67</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="2" t="n">
         <v>5657.02</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>4933.63</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>3968.65</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>4096.73</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="2" t="n">
         <v>4695.57</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="2" t="n">
         <v>4899.45</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="2" t="n">
         <v>5746.03</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>5000.51</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>4048.5</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>4171.33</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>4760.03</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>4972.28</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2" t="n">
         <v>5821.76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>5073.32</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>4114.87</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>4240.44</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="2" t="n">
         <v>4836.7</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="2" t="n">
         <v>5053.48</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="2" t="n">
         <v>5919.96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>5187.05</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>4205.02</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>4341.4</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="2" t="n">
         <v>4941.85</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="2" t="n">
         <v>5165.75</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="2" t="n">
         <v>6074.19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>5397.23</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>4358.45</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>4506.99</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2" t="n">
         <v>5147.72</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="2" t="n">
         <v>5375.19</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="2" t="n">
         <v>6331.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>5493.15</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>4443.29</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>4586.82</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="2" t="n">
         <v>5231.71</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="2" t="n">
         <v>5480.55</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="2" t="n">
         <v>6428.74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>5675.69</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>4588.12</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>4742.91</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="2" t="n">
         <v>5399.83</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="2" t="n">
         <v>5650.34</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="2" t="n">
         <v>6679.15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>5782.29</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>4672.42</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>4831.25</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="2" t="n">
         <v>5489.79</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="2" t="n">
         <v>5738.59</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="2" t="n">
         <v>6769.93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>5908.76</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>4740.02</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>4910.88</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>5588.89</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>5848.55</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="2" t="n">
         <v>6883.7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>6095</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>4887.18</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>5082.5</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="2" t="n">
         <v>5772.13</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="2" t="n">
         <v>6022.12</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="2" t="n">
         <v>7131.24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>6343.63</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>5103.28</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>5294.72</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="2" t="n">
         <v>6025.59</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="2" t="n">
         <v>6271.13</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="2" t="n">
         <v>7428.39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>6515.88</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>5272.27</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>5450.56</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="2" t="n">
         <v>6219.79</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>6465.14</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2" t="n">
         <v>7616.62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>6753.7</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>5478.94</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>5650.16</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="2" t="n">
         <v>6442.36</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="2" t="n">
         <v>6707.65</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="2" t="n">
         <v>7903.04</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>7300.38</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>5907.5</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>6106.56</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="2" t="n">
         <v>6950.84</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="2" t="n">
         <v>7225.46</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="2" t="n">
         <v>8533.33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>7845.04</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>6326.84</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>6548.91</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="2" t="n">
         <v>7472.66</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="2" t="n">
         <v>7767.13</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="2" t="n">
         <v>9142.47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>8157.29</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>6571.51</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>6810.22</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="2" t="n">
         <v>7777.3</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>8088.89</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2" t="n">
         <v>9552.1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>8250.43</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>6618.38</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>6845.67</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2" t="n">
         <v>7827.58</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="2" t="n">
         <v>8173.95</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="2" t="n">
         <v>9638.59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>8557.58</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="2" t="n">
         <v>6854.58</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>7097.45</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="2" t="n">
         <v>8109.83</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="2" t="n">
         <v>8481.75</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="2" t="n">
         <v>10001.57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>8922.47</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="2" t="n">
         <v>7156.11</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>7409.48</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" s="2" t="n">
         <v>8443.96</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="2" t="n">
         <v>8834.6</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="2" t="n">
         <v>10418.1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>9304.51</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="2" t="n">
         <v>7521.78</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>7745.64</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="2" t="n">
         <v>8791.17</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="2" t="n">
         <v>9203.52</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="2" t="n">
         <v>10820.55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>9544.87</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="2" t="n">
         <v>7662.06</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="2" t="n">
         <v>7923.8</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="2" t="n">
         <v>9015.67</v>
       </c>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="2" t="n">
         <v>9410.68</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="2" t="n">
         <v>11054.15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>9818.07</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="2" t="n">
         <v>7881.41</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="2" t="n">
         <v>8121.2</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2" t="n">
         <v>9229.87</v>
       </c>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="2" t="n">
         <v>9668.72</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="2" t="n">
         <v>11321.15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <v>10080.39</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="2" t="n">
         <v>8133.26</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="2" t="n">
         <v>8393.59</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="2" t="n">
         <v>9570.9</v>
       </c>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="2" t="n">
         <v>9964.3</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="2" t="n">
         <v>11747.84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>10334.78</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="2" t="n">
         <v>8306.55</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="2" t="n">
         <v>8581.11</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="2" t="n">
         <v>9750.26</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="2" t="n">
         <v>10199.65</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="2" t="n">
         <v>12049.15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>10683.89</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="2" t="n">
         <v>8626.63</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>8941.75</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>10098.04</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>10548.76</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2" t="n">
         <v>12566.64</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>11257.2</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="2" t="n">
         <v>9141.7</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="2" t="n">
         <v>9486.78</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="2" t="n">
         <v>10691.26</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="2" t="n">
         <v>11130.75</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="2" t="n">
         <v>13354.19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>11536.46</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="2" t="n">
         <v>9359.03</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>9701.48</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="2" t="n">
         <v>10966.14</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>11429.41</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2" t="n">
         <v>13665.38</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>12166.99</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="2" t="n">
         <v>9903.34</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="2" t="n">
         <v>10258.29</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="2" t="n">
         <v>11589.93</v>
       </c>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="2" t="n">
         <v>12032.14</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="2" t="n">
         <v>14356.39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>12608.53</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="2" t="n">
         <v>10203.24</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="2" t="n">
         <v>10573.8</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="2" t="n">
         <v>11943.08</v>
       </c>
-      <c r="G50" s="1" t="n">
+      <c r="G50" s="2" t="n">
         <v>12510</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="2" t="n">
         <v>14841.9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13065.7</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>10459.57</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>10878.35</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>12284.14</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>12927.3</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>15319.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>13200.54</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>10609.27</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>11071.63</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>12493.93</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>13095.46</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>15569.02</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>13590.57</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>11032.2</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>11465.04</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>12937.69</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>13518.68</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>16078.65</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>13784.46</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>11122.89</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>11513.18</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>13027.1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>13612.39</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>16185.45</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>13941.87</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>11247.31</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>11638.34</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>13138.95</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>13750.09</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>16310.18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>14178.22</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>11416.64</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>11799.46</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>13311.41</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>13989.78</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>16552.93</v>
       </c>
     </row>
   </sheetData>

--- a/eph/canasta/canastas_eph.xlsx
+++ b/eph/canasta/canastas_eph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CBA" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,7 +56,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,12 +78,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,12 +121,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,6 +137,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -159,17 +157,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1625,6 +1623,162 @@
       </c>
       <c r="H56" s="2" t="n">
         <v>5997.44205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5929.29</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5145.13</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>5289.67</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>5236.09</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>5838.43</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>6109.28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>6081.69</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>5272.76</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>5432.89</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>5356.79</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>5981.63</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>6291.56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>6288.17</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>5476.12</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>5632.44</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>5573.61</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>6214.79</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>6521.04</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>6702.33</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>5864.6</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>6014.33</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>5979.17</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>6671.74</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>6985.63</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>6981.61</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>6070.87</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>6239.72</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>6211.46</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>6937.09</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>7258.73</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>7340.12</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>6332.05</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>6575.43</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>6488.28</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>7267.36</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>7630.42</v>
       </c>
     </row>
   </sheetData>
@@ -1639,17 +1793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J65" activeCellId="0" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3113,6 +3267,162 @@
       </c>
       <c r="H56" s="0" t="n">
         <v>2.76</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>2.71</v>
       </c>
     </row>
   </sheetData>
@@ -3127,17 +3437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4601,6 +4911,162 @@
       </c>
       <c r="H56" s="0" t="n">
         <v>16552.93</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>14408.17</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>11627.99</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>12060.45</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>13561.47</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>14187.38</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>16861.61</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>14717.69</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>11863.71</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>12332.66</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>13820.52</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>14475.54</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>17301.79</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>15280.25</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>12376.03</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>12841.96</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>14435.65</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>15101.94</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>17998.07</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>16152.62</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>13078.06</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>13532.24</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>15306.68</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>16078.89</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>19070.77</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>16755.86</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>13538.04</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>14039.37</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>15901.34</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>16649.02</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>19816.33</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>17542.89</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>14057.15</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>14728.96</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>16480.23</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>17368.99</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>20678.44</v>
       </c>
     </row>
   </sheetData>

--- a/eph/canasta/canastas_eph.xlsx
+++ b/eph/canasta/canastas_eph.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\holatam\data\eph\canasta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711087A4-8AC0-4F26-95CD-69D029031A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CBA" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ICE" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CBT" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CBA" sheetId="1" r:id="rId1"/>
+    <sheet name="ICE" sheetId="2" r:id="rId2"/>
+    <sheet name="CBT" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,39 +29,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Anio</t>
+    <t>Anio</t>
   </si>
   <si>
-    <t xml:space="preserve">Mes</t>
+    <t>Mes</t>
   </si>
   <si>
-    <t xml:space="preserve">GBA</t>
+    <t>GBA</t>
   </si>
   <si>
-    <t xml:space="preserve">Noroeste</t>
+    <t>Noroeste</t>
   </si>
   <si>
-    <t xml:space="preserve">Noreste</t>
+    <t>Noreste</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuyo</t>
+    <t>Cuyo</t>
   </si>
   <si>
-    <t xml:space="preserve">Pampeana</t>
+    <t>Pampeana</t>
   </si>
   <si>
-    <t xml:space="preserve">Patagonia</t>
+    <t>Patagonia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -65,24 +66,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -95,7 +92,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -103,75 +100,338 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -197,1461 +457,1765 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1367.11</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>1205.31</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>1246.58</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>1224.64</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="2">
+        <v>1224.6400000000001</v>
+      </c>
+      <c r="G2" s="2">
         <v>1367.94</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>1412.49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>1420.09</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>1246.17</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>1288.41</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="2">
+        <v>1288.4100000000001</v>
+      </c>
+      <c r="F3" s="2">
         <v>1269.25</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>1418.83</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1465.19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>1474.95</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>1296.54</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>1336.31</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>1320.14</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>1475.38</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>1524.29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2016</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1512.07</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>1332.49</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>1370.11</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>1356.85</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>1514.28</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>1560.38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2016</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1514.53</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>1333.91</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>1371.62</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>1358.29</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>1514.96</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>1556.96</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1561.35</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>1369.37</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>1404.27</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>1398.2</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>1562.75</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>1604.3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1614.32</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>1413.77</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>1447.63</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>1445.22</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>1614.33</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>1661.42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2016</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1666.48</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>1458.24</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>1496.21</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>1494.04</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>1660.19</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>1713.67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2016</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1675.05</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>1459.38</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>1501.91</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>1496.09</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>1662.99</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>1723.86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2016</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1711.22</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>1498.62</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>1540.68</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>1536.29</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>1705.31</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>1767.89</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2016</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>1739.34</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>1516.82</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>1559.51</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>1559</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>1731.84</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>1797.44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2016</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>1762.65</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>1532.67</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>1573.18</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>1577.67</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>1753.27</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>1819.64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2016</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>1766.62</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>1526.86</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>1571.59</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>1574.22</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>1754.08</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>1822.96</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2017</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>1789.15</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>1541.73</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>1590.44</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>1595.31</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>1777.09</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>1848.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2017</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>1821.02</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>1570.68</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>1620.35</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>1628.44</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>1810.32</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>1882.42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2017</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>1876.56</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>1623.37</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>1672.78</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>1681.49</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>1863.58</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>1939.76</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>1915.47</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>1661.21</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>1709.08</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>1713.91</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>1901.16</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>1975.67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>1937.24</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>1681.95</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>1729.4</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>1731.7</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>1922</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>1994.94</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>1956.42</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>1698.68</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>1743.77</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>1747.95</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>1940.78</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>2012.13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>1984.64</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>1718.31</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>1761.4</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>1767.82</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>1965.17</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>2034.9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2017</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>2021.98</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>1756.04</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>1796.81</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>1805.99</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>2007.97</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>2074.38</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2017</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>2049.39</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>1783.48</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>1821.54</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>1830.78</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>2037.82</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>2101.72</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="H23" s="2">
+        <v>2101.7199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2017</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>2079.23</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>1812.72</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>1851.72</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>1860.27</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>2071.1</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>2137.17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2017</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>2125.84</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>1852.43</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>1895.81</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>1900.71</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>2117.11</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>2192.85</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2017</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>2150.29</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>1870.58</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>1917.87</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>1920.79</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>2141.51</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="G26" s="2">
+        <v>2141.5100000000002</v>
+      </c>
+      <c r="H26" s="2">
         <v>2221.58</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2018</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>2197.26</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="C27" s="2">
+        <v>2197.2600000000002</v>
+      </c>
+      <c r="D27" s="2">
         <v>1915.21</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>1960.18</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>1966.81</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>2192.22</v>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="G27" s="2">
+        <v>2192.2199999999998</v>
+      </c>
+      <c r="H27" s="2">
         <v>2271.64</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2018</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>2261.23</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>1969.15</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>2018.26</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>2022.41</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>2251.13</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>2343.56</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2018</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>2294.56</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>1996.76</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>2047.14</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>2048.43</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>2277.22</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="F29" s="2">
+        <v>2048.4299999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2277.2199999999998</v>
+      </c>
+      <c r="H29" s="2">
         <v>2367.11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>2308.11</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>2000.01</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>2054.76</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>2054.74</v>
-      </c>
-      <c r="G30" s="2" t="n">
+      <c r="E30" s="2">
+        <v>2054.7600000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2054.7399999999998</v>
+      </c>
+      <c r="G30" s="2">
         <v>2284.59</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>2373.69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2018</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>2418.65</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>2088.54</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>2153.6</v>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>2153.78</v>
-      </c>
-      <c r="G31" s="2" t="n">
+      <c r="F31" s="2">
+        <v>2153.7800000000002</v>
+      </c>
+      <c r="G31" s="2">
         <v>2389.73</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>2493.44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2018</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>2537.45</v>
-      </c>
-      <c r="D32" s="2" t="n">
+      <c r="C32" s="2">
+        <v>2537.4499999999998</v>
+      </c>
+      <c r="D32" s="2">
         <v>2199.69</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>2262.7</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>2265.26</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>2508.45</v>
-      </c>
-      <c r="H32" s="2" t="n">
+      <c r="E32" s="2">
+        <v>2262.6999999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2265.2600000000002</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2508.4499999999998</v>
+      </c>
+      <c r="H32" s="2">
         <v>2615.63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2018</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>2627.37</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>2292.29</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>2349.38</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>2355.98</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>2606.91</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>2710.54</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>2018</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>2701.48</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>2361.61</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>2414.6</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>2421.94</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>2683.06</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>2782.76</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>2018</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>2931.88</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>2557.36</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>2620.84</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>2622.96</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>2901.79</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>3015.31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>2018</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>3150.62</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>2738.89</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>2810.69</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>2819.87</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>3119.33</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>3242.01</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>2018</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>11</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>3276.02</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>2844.81</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>2922.84</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>2934.83</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>3248.55</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>3387.27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2018</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>3300.17</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>2852.75</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>2925.5</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>2942.7</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>3269.58</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>3393.87</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>2019</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>3423.03</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>2954.56</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>3033.1</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>3048.81</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>3392.7</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>3521.68</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>2019</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>3597.77</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2">
         <v>3111.35</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2">
         <v>3193.74</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>3198.47</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2">
         <v>3562.34</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>3694.36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>2019</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>3767.01</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>3270.34</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>3338.64</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>3342.65</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2">
         <v>3726.12</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2">
         <v>3850.73</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2019</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>3833.28</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>3316.91</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>3386.24</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>3389.35</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>3779.39</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>3906.06</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>2019</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>3911.58</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>3382.58</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>3455.83</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>3456.88</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2">
         <v>3852.08</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2">
         <v>3986.32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>2019</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>4016.09</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>3490.67</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>3571.74</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>3571.23</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2">
         <v>3969.84</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>4122.05</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>2019</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>7</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>4133.91</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2">
         <v>3580.41</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2">
         <v>3667.14</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2">
         <v>3665.51</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2">
         <v>4079.86</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>4242.66</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>2019</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>4290.72</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>3734.47</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2">
         <v>3837.66</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2">
         <v>3810.58</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2">
         <v>4236.45</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>4440.51</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>2019</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>9</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>4502.88</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2">
         <v>3940.39</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2">
         <v>4054.18</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>4019.27</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>4452.3</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>4702.18</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>2019</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>4596.2</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2">
         <v>4016.75</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2">
         <v>4128.29</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2">
         <v>4107.17</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>4553.55</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>4794.87</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>2019</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>11</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>4886.34</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>4287.16</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>4402.7</v>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>4373.56</v>
-      </c>
-      <c r="G49" s="2" t="n">
+      <c r="F49" s="2">
+        <v>4373.5600000000004</v>
+      </c>
+      <c r="G49" s="2">
         <v>4851.67</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>5090.92</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>2019</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>5043.41</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>4397.95</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2">
         <v>4518.72</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2">
         <v>4489.88</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>5004</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>5226.02</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="H50" s="2">
+        <v>5226.0200000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2020</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>5332.94</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>4607.7416</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>4750.36612</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>4724.66654</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>5276.45024</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>5510.6091</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="D51" s="2">
+        <v>4607.7416000000003</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4750.3661199999997</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4724.6665400000002</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5276.4502400000001</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5510.6090999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2020</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>5432.32</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>4715.2336</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>4877.37026</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>4842.61398</v>
-      </c>
-      <c r="G52" s="2" t="n">
+      <c r="D52" s="2">
+        <v>4715.2335999999996</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4877.3702599999997</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4842.6139800000001</v>
+      </c>
+      <c r="G52" s="2">
         <v>5389.07888</v>
       </c>
-      <c r="H52" s="2" t="n">
-        <v>5661.46035</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="H52" s="2">
+        <v>5661.4603500000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2020</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>5615.94</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>4903.2016</v>
-      </c>
-      <c r="E53" s="2" t="n">
+      <c r="D53" s="2">
+        <v>4903.2016000000003</v>
+      </c>
+      <c r="E53" s="2">
         <v>5050.68426</v>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>5014.60578</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>5586.23328</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>5846.7771</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="F53" s="2">
+        <v>5014.6057799999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5586.2332800000004</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5846.7771000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2020</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>5791.79</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>5032.984</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>5162.86242</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>5128.77583</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>5719.48832</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>5972.4882</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="D54" s="2">
+        <v>5032.9840000000004</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5162.8624200000004</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5128.7758299999996</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5719.4883200000004</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5972.4881999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2020</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>5785.01</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>5021.1216</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>5149.70672</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>5112.425</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>5705.43216</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>5952.6162</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="D55" s="2">
+        <v>5021.1216000000004</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5149.7067200000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>5112.4250000000002</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5705.4321600000003</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5952.6162000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2020</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>5834.66</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>5074.0624</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>5198.00116</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>5159.45931</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>5757.10672</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>5997.44205</v>
+      <c r="D56" s="2">
+        <v>5074.0623999999998</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5198.0011599999998</v>
+      </c>
+      <c r="F56" s="2">
+        <v>5159.4593100000002</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5757.1067199999998</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5997.4420499999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5929.29</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5145.13</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5289.67</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5236.09</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5838.43</v>
+      </c>
+      <c r="H57" s="2">
+        <v>6109.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6081.69</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5272.76</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5432.89</v>
+      </c>
+      <c r="F58" s="2">
+        <v>5356.79</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5981.63</v>
+      </c>
+      <c r="H58" s="2">
+        <v>6291.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>6288.17</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5476.12</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5632.44</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5573.61</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6214.79</v>
+      </c>
+      <c r="H59" s="2">
+        <v>6521.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6702.33</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5864.6</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6014.33</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5979.17</v>
+      </c>
+      <c r="G60" s="2">
+        <v>6671.74</v>
+      </c>
+      <c r="H60" s="2">
+        <v>6985.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6981.61</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6070.87</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6239.72</v>
+      </c>
+      <c r="F61" s="2">
+        <v>6211.46</v>
+      </c>
+      <c r="G61" s="2">
+        <v>6937.09</v>
+      </c>
+      <c r="H61" s="2">
+        <v>7258.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7340.12</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6332.05</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6575.43</v>
+      </c>
+      <c r="F62" s="2">
+        <v>6488.28</v>
+      </c>
+      <c r="G62" s="2">
+        <v>7267.36</v>
+      </c>
+      <c r="H62" s="2">
+        <v>7630.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7677.09</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6599.0293802615697</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6897.5775994880196</v>
+      </c>
+      <c r="F63" s="2">
+        <v>6789.4619230786702</v>
+      </c>
+      <c r="G63" s="2">
+        <v>7606.3619736038299</v>
+      </c>
+      <c r="H63" s="2">
+        <v>8013.8035065578897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>7953.14</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6845.7575999999999</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7146.8317800000004</v>
+      </c>
+      <c r="F64" s="2">
+        <v>7033.9823999999999</v>
+      </c>
+      <c r="G64" s="2">
+        <v>7868.5892800000001</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8302.3559999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8312.33</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7161.1671999999999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7462.0746799999997</v>
+      </c>
+      <c r="F65" s="2">
+        <v>7338.4239600000001</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8204.2379199999996</v>
+      </c>
+      <c r="H65" s="2">
+        <v>8623.2784499999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <v>8633.31</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7430.1127999999999</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7731.5555000000004</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7582.7219699999996</v>
+      </c>
+      <c r="G66" s="2">
+        <v>8481.1886400000003</v>
+      </c>
+      <c r="H66" s="2">
+        <v>8892.8649000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8874.89</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7664.1048000000001</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7975.0033000000003</v>
+      </c>
+      <c r="F67" s="2">
+        <v>7820.0010000000002</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8727.9030399999992</v>
+      </c>
+      <c r="H67" s="2">
+        <v>9132.3328500000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2021</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>9195.41</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7922.3760000000002</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8224.4407599999995</v>
+      </c>
+      <c r="F68" s="2">
+        <v>8079.1228099999998</v>
+      </c>
+      <c r="G68" s="2">
+        <v>9016.88976</v>
+      </c>
+      <c r="H68" s="2">
+        <v>9411.4827000000005</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,1461 +2249,1765 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>2.27</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>2.1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>2.12</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>2.41</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>2.27</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>2.57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D3" s="2">
         <v>2.11</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>2.13</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>2.42</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H3" s="2">
         <v>2.58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>2.31</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>2.15</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>2.17</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>2.46</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>2.31</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2.63</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2016</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>2.31</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>2.14</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>2.16</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>2.46</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>2.31</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>2.62</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2016</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>2.42</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="D6" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F6" s="2">
         <v>2.58</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>2.42</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="C7" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="2">
         <v>2.61</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H7" s="2">
         <v>2.78</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>2.44</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>2.27</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>2.29</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>2.6</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>2.44</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2016</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>2.42</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>2.25</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>2.27</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>2.58</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>2.42</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2016</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>2.41</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F10" s="2">
         <v>2.57</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>2.41</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>2.74</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2016</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>2.39</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="D11" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G11" s="2">
         <v>2.39</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>2.71</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2016</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>2.41</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F12" s="2">
         <v>2.57</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>2.41</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>2.74</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2016</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>2.41</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>2.23</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>2.25</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>2.56</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>2.41</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>2.73</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2016</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>2.41</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="D14" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F14" s="2">
         <v>2.57</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>2.41</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2017</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>2.41</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="D15" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F15" s="2">
         <v>2.57</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>2.41</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2017</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="C16" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F16" s="2">
         <v>2.59</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="G16" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H16" s="2">
         <v>2.76</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2017</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D17" s="2">
         <v>2.25</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>2.27</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>2.58</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="G17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H17" s="2">
         <v>2.75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D18" s="2">
         <v>2.27</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>2.29</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>2.6</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>2.44</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>2.78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D19" s="2">
         <v>2.27</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>2.29</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>2.61</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H19" s="2">
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="C20" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F20" s="2">
         <v>2.61</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="G20" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H20" s="2">
         <v>2.79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="C21" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F21" s="2">
         <v>2.61</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="G21" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H21" s="2">
         <v>2.78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2017</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>2.44</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F22" s="2">
         <v>2.6</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>2.44</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>2.77</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2017</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>2.44</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>2.27</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>2.29</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>2.6</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>2.44</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>2.77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2017</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>2.44</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>2.27</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>2.29</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>2.6</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>2.44</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>2.77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2017</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>2.44</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>2.27</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>2.29</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>2.6</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>2.44</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>2.77</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2017</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D26" s="2">
         <v>2.33</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>2.35</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>2.68</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="G26" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H26" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2018</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>2.5</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E27" s="2">
         <v>2.34</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>2.66</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>2.5</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>2.83</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2018</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D28" s="2">
         <v>2.33</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>2.35</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>2.67</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="G28" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H28" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2018</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>2.52</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>2.34</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>2.36</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>2.68</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>2.52</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>2.86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>2.56</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>2.37</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>2.39</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>2.72</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>2.56</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2018</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>2.52</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>2.34</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>2.36</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>2.68</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>2.52</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>2.86</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2018</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>2.5</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E32" s="2">
         <v>2.34</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>2.66</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>2.5</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2018</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>2.48</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F33" s="2" t="n">
+      <c r="D33" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F33" s="2">
         <v>2.64</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>2.48</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>2.81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>2018</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>2.5</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E34" s="2">
         <v>2.34</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>2.66</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>2.5</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>2018</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D35" s="2" t="n">
+      <c r="C35" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D35" s="2">
         <v>2.31</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>2.33</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>2.65</v>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H35" s="2" t="n">
+      <c r="G35" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H35" s="2">
         <v>2.83</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>2018</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D36" s="2" t="n">
+      <c r="C36" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D36" s="2">
         <v>2.31</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>2.33</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>2.65</v>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="G36" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H36" s="2">
         <v>2.82</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>2018</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>11</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D37" s="2" t="n">
+      <c r="C37" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D37" s="2">
         <v>2.31</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>2.33</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>2.65</v>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H37" s="2" t="n">
+      <c r="G37" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H37" s="2">
         <v>2.82</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2018</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>2.5</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="D38" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E38" s="2">
         <v>2.34</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>2.66</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>2.5</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>2019</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>2.5</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="D39" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E39" s="2">
         <v>2.34</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>2.66</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>2.5</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>2019</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>2.48</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F40" s="2" t="n">
+      <c r="D40" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F40" s="2">
         <v>2.64</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2">
         <v>2.48</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>2.82</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>2019</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F41" s="2" t="n">
+      <c r="C41" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F41" s="2">
         <v>2.63</v>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="H41" s="2" t="n">
+      <c r="G41" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H41" s="2">
         <v>2.81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2019</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D42" s="2" t="n">
+      <c r="C42" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D42" s="2">
         <v>2.31</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>2.34</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>2.66</v>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H42" s="2" t="n">
+      <c r="G42" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H42" s="2">
         <v>2.83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>2019</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D43" s="2" t="n">
+      <c r="C43" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D43" s="2">
         <v>2.33</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>2.35</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>2.67</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H43" s="2" t="n">
+      <c r="G43" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H43" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>2019</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D44" s="2" t="n">
+      <c r="C44" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D44" s="2">
         <v>2.33</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>2.35</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>2.68</v>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H44" s="2" t="n">
+      <c r="G44" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H44" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>2019</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>7</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>2.5</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="D45" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E45" s="2">
         <v>2.34</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2">
         <v>2.66</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2">
         <v>2.5</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>2019</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D46" s="2" t="n">
+      <c r="C46" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D46" s="2">
         <v>2.31</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2">
         <v>2.33</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2">
         <v>2.65</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="H46" s="2" t="n">
+      <c r="G46" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H46" s="2">
         <v>2.83</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>2019</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>9</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>2.5</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="D47" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E47" s="2">
         <v>2.34</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>2.66</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>2.5</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>2019</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D48" s="2" t="n">
+      <c r="C48" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D48" s="2">
         <v>2.33</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2">
         <v>2.35</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2">
         <v>2.67</v>
       </c>
-      <c r="G48" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="G48" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H48" s="2">
         <v>2.85</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>2019</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>11</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D49" s="2" t="n">
+      <c r="C49" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D49" s="2">
         <v>2.31</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>2.33</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>2.65</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2">
         <v>2.48</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>2.82</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>2019</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>2.5</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="D50" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E50" s="2">
         <v>2.34</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2">
         <v>2.66</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>2.5</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>2.84</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2020</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D51" s="0" t="n">
+      <c r="C51">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D51">
         <v>2.27</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>2.29</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51">
         <v>2.6</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H51" s="0" t="n">
+      <c r="G51">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H51">
         <v>2.78</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2020</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D52" s="0" t="n">
+      <c r="C52">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D52">
         <v>2.25</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>2.27</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>2.58</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H52" s="0" t="n">
+      <c r="G52">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H52">
         <v>2.75</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2020</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>2.42</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>2.25</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>2.27</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>2.58</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>2.42</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2020</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>2.38</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>2.21</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>2.23</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>2.54</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>2.38</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>2.71</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2020</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>2.41</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F55" s="0" t="n">
+      <c r="D55">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E55">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F55">
         <v>2.57</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>2.41</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>2.74</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2020</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="C56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D56">
         <v>2.25</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>2.27</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>2.58</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H56" s="0" t="n">
+      <c r="G56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H56">
         <v>2.76</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D57">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E57">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F57">
+        <v>2.59</v>
+      </c>
+      <c r="G57">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H57">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>2.42</v>
+      </c>
+      <c r="D58">
+        <v>2.25</v>
+      </c>
+      <c r="E58">
+        <v>2.27</v>
+      </c>
+      <c r="F58">
+        <v>2.58</v>
+      </c>
+      <c r="G58">
+        <v>2.42</v>
+      </c>
+      <c r="H58">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D59">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E59">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F59">
+        <v>2.59</v>
+      </c>
+      <c r="G59">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H59">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>2.41</v>
+      </c>
+      <c r="D60">
+        <v>2.23</v>
+      </c>
+      <c r="E60">
+        <v>2.25</v>
+      </c>
+      <c r="F60">
+        <v>2.56</v>
+      </c>
+      <c r="G60">
+        <v>2.41</v>
+      </c>
+      <c r="H60">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>2.4</v>
+      </c>
+      <c r="D61">
+        <v>2.23</v>
+      </c>
+      <c r="E61">
+        <v>2.25</v>
+      </c>
+      <c r="F61">
+        <v>2.56</v>
+      </c>
+      <c r="G61">
+        <v>2.4</v>
+      </c>
+      <c r="H61">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>2.39</v>
+      </c>
+      <c r="D62">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E62">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F62">
+        <v>2.54</v>
+      </c>
+      <c r="G62">
+        <v>2.39</v>
+      </c>
+      <c r="H62">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2.38</v>
+      </c>
+      <c r="D63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E63">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F63">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G63">
+        <v>2.38</v>
+      </c>
+      <c r="H63">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2.36</v>
+      </c>
+      <c r="D64">
+        <v>2.19</v>
+      </c>
+      <c r="E64">
+        <v>2.21</v>
+      </c>
+      <c r="F64">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G64">
+        <v>2.36</v>
+      </c>
+      <c r="H64">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2.37</v>
+      </c>
+      <c r="D65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E65">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F65">
+        <v>2.52</v>
+      </c>
+      <c r="G65">
+        <v>2.37</v>
+      </c>
+      <c r="H65">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2.36</v>
+      </c>
+      <c r="D66">
+        <v>2.19</v>
+      </c>
+      <c r="E66">
+        <v>2.21</v>
+      </c>
+      <c r="F66">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G66">
+        <v>2.36</v>
+      </c>
+      <c r="H66">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>2.35</v>
+      </c>
+      <c r="D67">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F67">
+        <v>2.5</v>
+      </c>
+      <c r="G67">
+        <v>2.35</v>
+      </c>
+      <c r="H67">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2021</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2.34</v>
+      </c>
+      <c r="D68">
+        <v>2.17</v>
+      </c>
+      <c r="E68">
+        <v>2.19</v>
+      </c>
+      <c r="F68">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G68">
+        <v>2.34</v>
+      </c>
+      <c r="H68">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H60" activeCellId="0" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3173,1443 +4041,1750 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>3103.34</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>2531.15</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>2642.75</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>2951.38</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>3105.22</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>3630.1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>3237.81</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>2629.42</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>2744.31</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>3071.59</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>3234.93</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>3780.19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>3407.13</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>2787.56</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>2899.79</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>3247.54</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>3408.13</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>4008.88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2016</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>3492.88</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>2851.53</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>2959.44</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>3337.85</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>3497.99</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>4088.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2016</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>3665.16</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>2987.96</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>3099.86</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>3504.39</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>3666.2</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>4281.64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="H6" s="2">
+        <v>4281.6400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>3825.31</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>3122.16</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>3229.82</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>3649.3</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>3828.74</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>4459.95</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>3938.94</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>3209.26</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>3315.07</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>3757.57</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>3938.97</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>4602.13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2016</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>4032.88</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>3281.04</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>3396.4</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>3854.62</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>4017.66</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>4712.59</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2016</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>4036.87</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>3269.01</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>3394.32</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>3844.95</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>4007.81</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>4723.38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2016</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>4089.82</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>3326.94</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>3451.12</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>3917.54</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>4075.69</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>4790.98</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="H11" s="2">
+        <v>4790.9799999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2016</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>4191.81</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" s="2">
+        <v>4191.8100000000004</v>
+      </c>
+      <c r="D12" s="2">
         <v>3397.68</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>3524.49</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>4006.63</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>4173.73</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="2">
+        <v>4173.7299999999996</v>
+      </c>
+      <c r="H12" s="2">
         <v>4924.99</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2016</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>4247.99</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>3417.85</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>3539.66</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>4038.84</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>4225.38</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>4967.62</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2016</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>4257.55</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>3420.17</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>3551.79</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>4045.75</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>4227.33</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>4994.91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2017</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>4311.85</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="2">
+        <v>4311.8500000000004</v>
+      </c>
+      <c r="D15" s="2">
         <v>3453.48</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>3594.39</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>4099.95</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>4282.79</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>5064.89</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="H15" s="2">
+        <v>5064.8900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2017</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>4425.08</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>3549.74</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>3694.4</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>4217.66</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>4399.08</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>5195.48</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="H16" s="2">
+        <v>5195.4799999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2017</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>4560.04</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>3652.58</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>3797.21</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>4338.24</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>4528.5</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>5334.34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>4692.9</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="2">
+        <v>4692.8999999999996</v>
+      </c>
+      <c r="D18" s="2">
         <v>3770.95</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>3913.79</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>4456.17</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>4638.83</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>5492.36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>4746.24</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>3818.03</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>3960.33</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>4519.74</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>4708.9</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19" s="2">
+        <v>4708.8999999999996</v>
+      </c>
+      <c r="H19" s="2">
         <v>5545.93</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>4793.23</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="2">
+        <v>4793.2299999999996</v>
+      </c>
+      <c r="D20" s="2">
         <v>3872.99</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>4010.67</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>4562.15</v>
-      </c>
-      <c r="G20" s="2" t="n">
+      <c r="F20" s="2">
+        <v>4562.1499999999996</v>
+      </c>
+      <c r="G20" s="2">
         <v>4754.91</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>5613.84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>4862.37</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>3917.75</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>4051.22</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>4614.01</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>4814.67</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>5657.02</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2017</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>4933.63</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>3968.65</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>4096.73</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2">
+        <v>4096.7299999999996</v>
+      </c>
+      <c r="F22" s="2">
         <v>4695.57</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>4899.45</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>5746.03</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2017</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>5000.51</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>4048.5</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>4171.33</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>4760.03</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>4972.28</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>5821.76</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2017</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>5073.32</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>4114.87</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>4240.44</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="E24" s="2">
+        <v>4240.4399999999996</v>
+      </c>
+      <c r="F24" s="2">
         <v>4836.7</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>5053.48</v>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="G24" s="2">
+        <v>5053.4799999999996</v>
+      </c>
+      <c r="H24" s="2">
         <v>5919.96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2017</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>5187.05</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>4205.02</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>4341.4</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>4941.85</v>
-      </c>
-      <c r="G25" s="2" t="n">
+      <c r="D25" s="2">
+        <v>4205.0200000000004</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4341.3999999999996</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4941.8500000000004</v>
+      </c>
+      <c r="G25" s="2">
         <v>5165.75</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>6074.19</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2017</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>5397.23</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>4358.45</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>4506.99</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>5147.72</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>5375.19</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>6331.5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2018</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>5493.15</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>4443.29</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>4586.82</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>5231.71</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>5480.55</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>6428.74</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2018</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>5675.69</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>4588.12</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>4742.91</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>5399.83</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>5650.34</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>6679.15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2018</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>5782.29</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>4672.42</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>4831.25</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>5489.79</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>5738.59</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>6769.93</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>5908.76</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>4740.02</v>
-      </c>
-      <c r="E30" s="2" t="n">
+      <c r="D30" s="2">
+        <v>4740.0200000000004</v>
+      </c>
+      <c r="E30" s="2">
         <v>4910.88</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>5588.89</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>5848.55</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>6883.7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2018</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>6095</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>4887.18</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>5082.5</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>5772.13</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>6022.12</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>7131.24</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2018</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>6343.63</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>5103.28</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2">
         <v>5294.72</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>6025.59</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>6271.13</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>7428.39</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2018</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>6515.88</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>5272.27</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>5450.56</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>6219.79</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>6465.14</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>7616.62</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>2018</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>6753.7</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>5478.94</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>5650.16</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>6442.36</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>6707.65</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>7903.04</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>2018</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>7300.38</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>5907.5</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>6106.56</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>6950.84</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>7225.46</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>8533.33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>2018</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>7845.04</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>6326.84</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>6548.91</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>7472.66</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>7767.13</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>9142.47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="H36" s="2">
+        <v>9142.4699999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>2018</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>11</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>8157.29</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>6571.51</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>6810.22</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>7777.3</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>8088.89</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>9552.1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>2018</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>8250.43</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>6618.38</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>6845.67</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>7827.58</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>8173.95</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>9638.59</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>2019</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>8557.58</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>6854.58</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>7097.45</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>8109.83</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>8481.75</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>10001.57</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>2019</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>8922.47</v>
-      </c>
-      <c r="D40" s="2" t="n">
+      <c r="C40" s="2">
+        <v>8922.4699999999993</v>
+      </c>
+      <c r="D40" s="2">
         <v>7156.11</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2">
         <v>7409.48</v>
       </c>
-      <c r="F40" s="2" t="n">
-        <v>8443.96</v>
-      </c>
-      <c r="G40" s="2" t="n">
+      <c r="F40" s="2">
+        <v>8443.9599999999991</v>
+      </c>
+      <c r="G40" s="2">
         <v>8834.6</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>10418.1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>2019</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>9304.51</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>7521.78</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>7745.64</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>8791.17</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2">
         <v>9203.52</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2">
         <v>10820.55</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2019</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>9544.87</v>
-      </c>
-      <c r="D42" s="2" t="n">
+      <c r="C42" s="2">
+        <v>9544.8700000000008</v>
+      </c>
+      <c r="D42" s="2">
         <v>7662.06</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>7923.8</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>9015.67</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>9410.68</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>11054.15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>2019</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>9818.07</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>7881.41</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>8121.2</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>9229.87</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>9668.72</v>
-      </c>
-      <c r="H43" s="2" t="n">
+      <c r="F43" s="2">
+        <v>9229.8700000000008</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9668.7199999999993</v>
+      </c>
+      <c r="H43" s="2">
         <v>11321.15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>2019</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>6</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>10080.39</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>8133.26</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>8393.59</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>9570.9</v>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>9964.3</v>
-      </c>
-      <c r="H44" s="2" t="n">
+      <c r="G44" s="2">
+        <v>9964.2999999999993</v>
+      </c>
+      <c r="H44" s="2">
         <v>11747.84</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>2019</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>7</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>10334.78</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>8306.55</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="C45" s="2">
+        <v>10334.780000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8306.5499999999993</v>
+      </c>
+      <c r="E45" s="2">
         <v>8581.11</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2">
         <v>9750.26</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2">
         <v>10199.65</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>12049.15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>2019</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>8</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>10683.89</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>8626.63</v>
-      </c>
-      <c r="E46" s="2" t="n">
+      <c r="D46" s="2">
+        <v>8626.6299999999992</v>
+      </c>
+      <c r="E46" s="2">
         <v>8941.75</v>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>10098.04</v>
-      </c>
-      <c r="G46" s="2" t="n">
+      <c r="F46" s="2">
+        <v>10098.040000000001</v>
+      </c>
+      <c r="G46" s="2">
         <v>10548.76</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>12566.64</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>2019</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>9</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>11257.2</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>9141.7</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>9486.78</v>
-      </c>
-      <c r="F47" s="2" t="n">
+      <c r="D47" s="2">
+        <v>9141.7000000000007</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9486.7800000000007</v>
+      </c>
+      <c r="F47" s="2">
         <v>10691.26</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>11130.75</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>13354.19</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>2019</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>11536.46</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>9359.03</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="2">
+        <v>9359.0300000000007</v>
+      </c>
+      <c r="E48" s="2">
         <v>9701.48</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2">
         <v>10966.14</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>11429.41</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>13665.38</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>2019</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>11</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>12166.99</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>9903.34</v>
       </c>
-      <c r="E49" s="2" t="n">
-        <v>10258.29</v>
-      </c>
-      <c r="F49" s="2" t="n">
+      <c r="E49" s="2">
+        <v>10258.290000000001</v>
+      </c>
+      <c r="F49" s="2">
         <v>11589.93</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2">
         <v>12032.14</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>14356.39</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>2019</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>12608.53</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>10203.24</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2">
         <v>10573.8</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2">
         <v>11943.08</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>12510</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>14841.9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2020</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>13065.7</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>10459.57</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>10878.35</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51">
         <v>12284.14</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51">
         <v>12927.3</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51">
         <v>15319.5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2020</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>13200.54</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>10609.27</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>11071.63</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52">
         <v>12493.93</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52">
         <v>13095.46</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>15569.02</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2020</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>13590.57</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>11032.2</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>11465.04</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53">
         <v>12937.69</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>13518.68</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>16078.65</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2020</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>13784.46</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>11122.89</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>11513.18</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54">
         <v>13027.1</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54">
         <v>13612.39</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>16185.45</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2020</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>13941.87</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>11247.31</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>11638.34</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55">
         <v>13138.95</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>13750.09</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>16310.18</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2020</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>14178.22</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>11416.64</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>11799.46</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56">
         <v>13311.41</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56">
         <v>13989.78</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56">
         <v>16552.93</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2020</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>14408.17</v>
+      </c>
+      <c r="D57">
+        <v>11627.99</v>
+      </c>
+      <c r="E57">
+        <v>12060.45</v>
+      </c>
+      <c r="F57">
+        <v>13561.47</v>
+      </c>
+      <c r="G57">
+        <v>14187.38</v>
+      </c>
+      <c r="H57">
+        <v>16861.61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2020</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>14717.69</v>
+      </c>
+      <c r="D58">
+        <v>11863.71</v>
+      </c>
+      <c r="E58">
+        <v>12332.66</v>
+      </c>
+      <c r="F58">
+        <v>13820.52</v>
+      </c>
+      <c r="G58">
+        <v>14475.54</v>
+      </c>
+      <c r="H58">
+        <v>17301.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2020</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>15280.25</v>
+      </c>
+      <c r="D59">
+        <v>12376.03</v>
+      </c>
+      <c r="E59">
+        <v>12841.96</v>
+      </c>
+      <c r="F59">
+        <v>14435.65</v>
+      </c>
+      <c r="G59">
+        <v>15101.94</v>
+      </c>
+      <c r="H59">
+        <v>17998.07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>16152.62</v>
+      </c>
+      <c r="D60">
+        <v>13078.06</v>
+      </c>
+      <c r="E60">
+        <v>13532.24</v>
+      </c>
+      <c r="F60">
+        <v>15306.68</v>
+      </c>
+      <c r="G60">
+        <v>16078.89</v>
+      </c>
+      <c r="H60">
+        <v>19070.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2020</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>16755.86</v>
+      </c>
+      <c r="D61">
+        <v>13538.04</v>
+      </c>
+      <c r="E61">
+        <v>14039.37</v>
+      </c>
+      <c r="F61">
+        <v>15901.34</v>
+      </c>
+      <c r="G61">
+        <v>16649.02</v>
+      </c>
+      <c r="H61">
+        <v>19816.330000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2020</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>17542.89</v>
+      </c>
+      <c r="D62">
+        <v>14057.15</v>
+      </c>
+      <c r="E62">
+        <v>14728.96</v>
+      </c>
+      <c r="F62">
+        <v>16480.23</v>
+      </c>
+      <c r="G62">
+        <v>17368.990000000002</v>
+      </c>
+      <c r="H62">
+        <v>20678.439999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>18271.47</v>
+      </c>
+      <c r="D63">
+        <v>14517.87</v>
+      </c>
+      <c r="E63">
+        <v>15312.63</v>
+      </c>
+      <c r="F63">
+        <v>17177.330000000002</v>
+      </c>
+      <c r="G63">
+        <v>18103.14</v>
+      </c>
+      <c r="H63">
+        <v>21637.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>18769.41</v>
+      </c>
+      <c r="D64">
+        <v>14992.21</v>
+      </c>
+      <c r="E64">
+        <v>15794.49</v>
+      </c>
+      <c r="F64">
+        <v>17655.29</v>
+      </c>
+      <c r="G64">
+        <v>18569.87</v>
+      </c>
+      <c r="H64">
+        <v>22250.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>19700.22</v>
+      </c>
+      <c r="D65">
+        <v>15754.57</v>
+      </c>
+      <c r="E65">
+        <v>16565.8</v>
+      </c>
+      <c r="F65">
+        <v>18492.82</v>
+      </c>
+      <c r="G65">
+        <v>19444.05</v>
+      </c>
+      <c r="H65">
+        <v>23196.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>20374.61</v>
+      </c>
+      <c r="D66">
+        <v>16271.94</v>
+      </c>
+      <c r="E66">
+        <v>17086.75</v>
+      </c>
+      <c r="F66">
+        <v>19032.63</v>
+      </c>
+      <c r="G66">
+        <v>20015.61</v>
+      </c>
+      <c r="H66">
+        <v>23832.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>20855.990000000002</v>
+      </c>
+      <c r="D67">
+        <v>16707.740000000002</v>
+      </c>
+      <c r="E67">
+        <v>17545</v>
+      </c>
+      <c r="F67">
+        <v>19550</v>
+      </c>
+      <c r="G67">
+        <v>20510.57</v>
+      </c>
+      <c r="H67">
+        <v>24383.32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2021</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>21517.26</v>
+      </c>
+      <c r="D68">
+        <v>17191.560000000001</v>
+      </c>
+      <c r="E68">
+        <v>18011.52</v>
+      </c>
+      <c r="F68">
+        <v>20117.009999999998</v>
+      </c>
+      <c r="G68">
+        <v>21099.52</v>
+      </c>
+      <c r="H68">
+        <v>25034.54</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/eph/canasta/canastas_eph.xlsx
+++ b/eph/canasta/canastas_eph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\holatam\data\eph\canasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Paquete eph\data\eph\canasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711087A4-8AC0-4F26-95CD-69D029031A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9565EE1A-0984-474C-8F65-69A5E8A5AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBA" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,17 +69,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -423,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:H68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -483,7 +472,7 @@
         <v>1412.49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -509,7 +498,7 @@
         <v>1465.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -535,7 +524,7 @@
         <v>1524.29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -561,7 +550,7 @@
         <v>1560.38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -587,7 +576,7 @@
         <v>1556.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -613,7 +602,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -639,7 +628,7 @@
         <v>1661.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -665,7 +654,7 @@
         <v>1713.67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -691,7 +680,7 @@
         <v>1723.86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -717,7 +706,7 @@
         <v>1767.89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -743,7 +732,7 @@
         <v>1797.44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -769,7 +758,7 @@
         <v>1819.64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -795,7 +784,7 @@
         <v>1822.96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2017</v>
       </c>
@@ -821,7 +810,7 @@
         <v>1848.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2017</v>
       </c>
@@ -847,7 +836,7 @@
         <v>1882.42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -873,7 +862,7 @@
         <v>1939.76</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
@@ -899,7 +888,7 @@
         <v>1975.67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -925,7 +914,7 @@
         <v>1994.94</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2017</v>
       </c>
@@ -951,7 +940,7 @@
         <v>2012.13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -977,7 +966,7 @@
         <v>2034.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -1003,7 +992,7 @@
         <v>2074.38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2017</v>
       </c>
@@ -1029,7 +1018,7 @@
         <v>2101.7199999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -1055,7 +1044,7 @@
         <v>2137.17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2017</v>
       </c>
@@ -1081,7 +1070,7 @@
         <v>2192.85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2017</v>
       </c>
@@ -1107,7 +1096,7 @@
         <v>2221.58</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2018</v>
       </c>
@@ -1133,7 +1122,7 @@
         <v>2271.64</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2018</v>
       </c>
@@ -1159,7 +1148,7 @@
         <v>2343.56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -1185,7 +1174,7 @@
         <v>2367.11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -1211,7 +1200,7 @@
         <v>2373.69</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2018</v>
       </c>
@@ -1237,7 +1226,7 @@
         <v>2493.44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2018</v>
       </c>
@@ -1263,7 +1252,7 @@
         <v>2615.63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2018</v>
       </c>
@@ -1289,7 +1278,7 @@
         <v>2710.54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -1315,7 +1304,7 @@
         <v>2782.76</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -1341,7 +1330,7 @@
         <v>3015.31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2018</v>
       </c>
@@ -1367,7 +1356,7 @@
         <v>3242.01</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2018</v>
       </c>
@@ -1393,7 +1382,7 @@
         <v>3387.27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
@@ -1419,7 +1408,7 @@
         <v>3393.87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2019</v>
       </c>
@@ -1445,7 +1434,7 @@
         <v>3521.68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -1471,7 +1460,7 @@
         <v>3694.36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -1497,7 +1486,7 @@
         <v>3850.73</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -1523,7 +1512,7 @@
         <v>3906.06</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -1549,7 +1538,7 @@
         <v>3986.32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2019</v>
       </c>
@@ -1575,7 +1564,7 @@
         <v>4122.05</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
@@ -1601,7 +1590,7 @@
         <v>4242.66</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -1627,7 +1616,7 @@
         <v>4440.51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -1653,7 +1642,7 @@
         <v>4702.18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2019</v>
       </c>
@@ -1679,7 +1668,7 @@
         <v>4794.87</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2019</v>
       </c>
@@ -1705,7 +1694,7 @@
         <v>5090.92</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2019</v>
       </c>
@@ -1731,7 +1720,7 @@
         <v>5226.0200000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1757,7 +1746,7 @@
         <v>5510.6090999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -1783,7 +1772,7 @@
         <v>5661.4603500000003</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -1809,7 +1798,7 @@
         <v>5846.7771000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -1835,7 +1824,7 @@
         <v>5972.4881999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -1861,7 +1850,7 @@
         <v>5952.6162000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -1887,7 +1876,7 @@
         <v>5997.4420499999997</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -1913,7 +1902,7 @@
         <v>6109.28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -1939,7 +1928,7 @@
         <v>6291.56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -1965,7 +1954,7 @@
         <v>6521.04</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -1991,7 +1980,7 @@
         <v>6985.63</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -2017,7 +2006,7 @@
         <v>7258.73</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -2043,7 +2032,7 @@
         <v>7630.42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -2069,7 +2058,7 @@
         <v>8013.8035065578897</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -2095,7 +2084,7 @@
         <v>8302.3559999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -2121,7 +2110,7 @@
         <v>8623.2784499999998</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -2147,7 +2136,7 @@
         <v>8892.8649000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -2173,7 +2162,7 @@
         <v>9132.3328500000007</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -2197,6 +2186,162 @@
       </c>
       <c r="H68" s="2">
         <v>9411.4827000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>9386.0400000000009</v>
+      </c>
+      <c r="D69">
+        <v>8120.56</v>
+      </c>
+      <c r="E69">
+        <v>8411.5400000000009</v>
+      </c>
+      <c r="F69">
+        <v>8297.7199999999993</v>
+      </c>
+      <c r="G69">
+        <v>9245.09</v>
+      </c>
+      <c r="H69">
+        <v>9625.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>9454.1299999999992</v>
+      </c>
+      <c r="D70">
+        <v>8208.39</v>
+      </c>
+      <c r="E70">
+        <v>8499.58</v>
+      </c>
+      <c r="F70">
+        <v>8373.2900000000009</v>
+      </c>
+      <c r="G70">
+        <v>9334.7199999999993</v>
+      </c>
+      <c r="H70">
+        <v>9712.26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>9713.2099999999991</v>
+      </c>
+      <c r="D71">
+        <v>8442.93</v>
+      </c>
+      <c r="E71">
+        <v>8720.4500000000007</v>
+      </c>
+      <c r="F71">
+        <v>8632.33</v>
+      </c>
+      <c r="G71">
+        <v>9612.74</v>
+      </c>
+      <c r="H71">
+        <v>9984.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>10008.200000000001</v>
+      </c>
+      <c r="D72">
+        <v>8756.67</v>
+      </c>
+      <c r="E72">
+        <v>9026.77</v>
+      </c>
+      <c r="F72">
+        <v>8951.56</v>
+      </c>
+      <c r="G72">
+        <v>9950.59</v>
+      </c>
+      <c r="H72">
+        <v>10324.08</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>10266.790000000001</v>
+      </c>
+      <c r="D73">
+        <v>8934.9</v>
+      </c>
+      <c r="E73">
+        <v>9264.68</v>
+      </c>
+      <c r="F73">
+        <v>9157.3799999999992</v>
+      </c>
+      <c r="G73">
+        <v>10170.700000000001</v>
+      </c>
+      <c r="H73">
+        <v>10629.87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>10667.86</v>
+      </c>
+      <c r="D74">
+        <v>9263.66</v>
+      </c>
+      <c r="E74">
+        <v>9646.81</v>
+      </c>
+      <c r="F74">
+        <v>9502.92</v>
+      </c>
+      <c r="G74">
+        <v>10571.98</v>
+      </c>
+      <c r="H74">
+        <v>11042.69</v>
       </c>
     </row>
   </sheetData>
@@ -2207,15 +2352,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:H68"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2394,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -2275,7 +2420,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -2301,7 +2446,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -2327,7 +2472,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -2353,7 +2498,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -2379,7 +2524,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -2405,7 +2550,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -2431,7 +2576,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -2457,7 +2602,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -2483,7 +2628,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -2509,7 +2654,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -2535,7 +2680,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -2561,7 +2706,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -2587,7 +2732,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2017</v>
       </c>
@@ -2613,7 +2758,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2017</v>
       </c>
@@ -2639,7 +2784,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -2665,7 +2810,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
@@ -2691,7 +2836,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -2717,7 +2862,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2017</v>
       </c>
@@ -2743,7 +2888,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -2769,7 +2914,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -2795,7 +2940,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2017</v>
       </c>
@@ -2821,7 +2966,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -2847,7 +2992,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2017</v>
       </c>
@@ -2873,7 +3018,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2017</v>
       </c>
@@ -2899,7 +3044,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2018</v>
       </c>
@@ -2925,7 +3070,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2018</v>
       </c>
@@ -2951,7 +3096,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -2977,7 +3122,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -3003,7 +3148,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2018</v>
       </c>
@@ -3029,7 +3174,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2018</v>
       </c>
@@ -3055,7 +3200,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2018</v>
       </c>
@@ -3081,7 +3226,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -3107,7 +3252,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -3133,7 +3278,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2018</v>
       </c>
@@ -3159,7 +3304,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2018</v>
       </c>
@@ -3185,7 +3330,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
@@ -3211,7 +3356,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2019</v>
       </c>
@@ -3237,7 +3382,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -3263,7 +3408,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -3289,7 +3434,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -3315,7 +3460,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -3341,7 +3486,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2019</v>
       </c>
@@ -3367,7 +3512,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
@@ -3393,7 +3538,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -3419,7 +3564,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -3445,7 +3590,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2019</v>
       </c>
@@ -3471,7 +3616,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2019</v>
       </c>
@@ -3497,7 +3642,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2019</v>
       </c>
@@ -3523,7 +3668,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -3549,7 +3694,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -3575,7 +3720,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -3601,7 +3746,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -3627,7 +3772,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -3653,7 +3798,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -3679,7 +3824,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -3705,7 +3850,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -3731,7 +3876,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -3757,7 +3902,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -3783,7 +3928,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3809,7 +3954,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -3835,7 +3980,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3861,7 +4006,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3887,7 +4032,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3913,7 +4058,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3939,7 +4084,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3965,7 +4110,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3989,6 +4134,162 @@
       </c>
       <c r="H68">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2.33</v>
+      </c>
+      <c r="D69">
+        <v>2.16</v>
+      </c>
+      <c r="E69">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F69">
+        <v>2.48</v>
+      </c>
+      <c r="G69">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H69">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>2.34</v>
+      </c>
+      <c r="D70">
+        <v>2.17</v>
+      </c>
+      <c r="E70">
+        <v>2.19</v>
+      </c>
+      <c r="F70">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G70">
+        <v>2.34</v>
+      </c>
+      <c r="H70">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>2.35</v>
+      </c>
+      <c r="D71">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F71">
+        <v>2.5</v>
+      </c>
+      <c r="G71">
+        <v>2.34</v>
+      </c>
+      <c r="H71">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>2.34</v>
+      </c>
+      <c r="D72">
+        <v>2.17</v>
+      </c>
+      <c r="E72">
+        <v>2.19</v>
+      </c>
+      <c r="F72">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G72">
+        <v>2.34</v>
+      </c>
+      <c r="H72">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>2.33</v>
+      </c>
+      <c r="D73">
+        <v>2.16</v>
+      </c>
+      <c r="E73">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F73">
+        <v>2.48</v>
+      </c>
+      <c r="G73">
+        <v>2.33</v>
+      </c>
+      <c r="H73">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>2.31</v>
+      </c>
+      <c r="D74">
+        <v>2.14</v>
+      </c>
+      <c r="E74">
+        <v>2.16</v>
+      </c>
+      <c r="F74">
+        <v>2.46</v>
+      </c>
+      <c r="G74">
+        <v>2.31</v>
+      </c>
+      <c r="H74">
+        <v>2.62</v>
       </c>
     </row>
   </sheetData>
@@ -3999,15 +4300,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:H68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4342,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -4067,7 +4368,7 @@
         <v>3630.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -4093,7 +4394,7 @@
         <v>3780.19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -4119,7 +4420,7 @@
         <v>4008.88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -4145,7 +4446,7 @@
         <v>4088.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -4171,7 +4472,7 @@
         <v>4281.6400000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -4197,7 +4498,7 @@
         <v>4459.95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -4223,7 +4524,7 @@
         <v>4602.13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
@@ -4249,7 +4550,7 @@
         <v>4712.59</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -4275,7 +4576,7 @@
         <v>4723.38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -4301,7 +4602,7 @@
         <v>4790.9799999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2016</v>
       </c>
@@ -4327,7 +4628,7 @@
         <v>4924.99</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2016</v>
       </c>
@@ -4353,7 +4654,7 @@
         <v>4967.62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2016</v>
       </c>
@@ -4379,7 +4680,7 @@
         <v>4994.91</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2017</v>
       </c>
@@ -4405,7 +4706,7 @@
         <v>5064.8900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2017</v>
       </c>
@@ -4431,7 +4732,7 @@
         <v>5195.4799999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -4457,7 +4758,7 @@
         <v>5334.34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
@@ -4483,7 +4784,7 @@
         <v>5492.36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -4509,7 +4810,7 @@
         <v>5545.93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2017</v>
       </c>
@@ -4535,7 +4836,7 @@
         <v>5613.84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -4561,7 +4862,7 @@
         <v>5657.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -4587,7 +4888,7 @@
         <v>5746.03</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2017</v>
       </c>
@@ -4613,7 +4914,7 @@
         <v>5821.76</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -4639,7 +4940,7 @@
         <v>5919.96</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2017</v>
       </c>
@@ -4665,7 +4966,7 @@
         <v>6074.19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2017</v>
       </c>
@@ -4691,7 +4992,7 @@
         <v>6331.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2018</v>
       </c>
@@ -4717,7 +5018,7 @@
         <v>6428.74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2018</v>
       </c>
@@ -4743,7 +5044,7 @@
         <v>6679.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -4769,7 +5070,7 @@
         <v>6769.93</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2018</v>
       </c>
@@ -4795,7 +5096,7 @@
         <v>6883.7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2018</v>
       </c>
@@ -4821,7 +5122,7 @@
         <v>7131.24</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2018</v>
       </c>
@@ -4847,7 +5148,7 @@
         <v>7428.39</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2018</v>
       </c>
@@ -4873,7 +5174,7 @@
         <v>7616.62</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2018</v>
       </c>
@@ -4899,7 +5200,7 @@
         <v>7903.04</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2018</v>
       </c>
@@ -4925,7 +5226,7 @@
         <v>8533.33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2018</v>
       </c>
@@ -4951,7 +5252,7 @@
         <v>9142.4699999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2018</v>
       </c>
@@ -4977,7 +5278,7 @@
         <v>9552.1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2018</v>
       </c>
@@ -5003,7 +5304,7 @@
         <v>9638.59</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2019</v>
       </c>
@@ -5029,7 +5330,7 @@
         <v>10001.57</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -5055,7 +5356,7 @@
         <v>10418.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -5081,7 +5382,7 @@
         <v>10820.55</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -5107,7 +5408,7 @@
         <v>11054.15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -5133,7 +5434,7 @@
         <v>11321.15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2019</v>
       </c>
@@ -5159,7 +5460,7 @@
         <v>11747.84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
@@ -5185,7 +5486,7 @@
         <v>12049.15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -5211,7 +5512,7 @@
         <v>12566.64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -5237,7 +5538,7 @@
         <v>13354.19</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2019</v>
       </c>
@@ -5263,7 +5564,7 @@
         <v>13665.38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2019</v>
       </c>
@@ -5289,7 +5590,7 @@
         <v>14356.39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2019</v>
       </c>
@@ -5315,7 +5616,7 @@
         <v>14841.9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -5341,7 +5642,7 @@
         <v>15319.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -5367,7 +5668,7 @@
         <v>15569.02</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -5393,7 +5694,7 @@
         <v>16078.65</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -5419,7 +5720,7 @@
         <v>16185.45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -5445,7 +5746,7 @@
         <v>16310.18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -5471,7 +5772,7 @@
         <v>16552.93</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -5497,7 +5798,7 @@
         <v>16861.61</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -5523,7 +5824,7 @@
         <v>17301.79</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -5549,7 +5850,7 @@
         <v>17998.07</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -5575,7 +5876,7 @@
         <v>19070.77</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -5601,7 +5902,7 @@
         <v>19816.330000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -5627,7 +5928,7 @@
         <v>20678.439999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -5653,7 +5954,7 @@
         <v>21637.26</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -5679,7 +5980,7 @@
         <v>22250.32</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -5705,7 +6006,7 @@
         <v>23196.62</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -5731,7 +6032,7 @@
         <v>23832.86</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -5757,7 +6058,7 @@
         <v>24383.32</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -5781,6 +6082,162 @@
       </c>
       <c r="H68">
         <v>25034.54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>21869.47</v>
+      </c>
+      <c r="D69">
+        <v>17540.41</v>
+      </c>
+      <c r="E69">
+        <v>18337.16</v>
+      </c>
+      <c r="F69">
+        <v>20578.349999999999</v>
+      </c>
+      <c r="G69">
+        <v>21448.61</v>
+      </c>
+      <c r="H69">
+        <v>25411.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>22122.66</v>
+      </c>
+      <c r="D70">
+        <v>17812.21</v>
+      </c>
+      <c r="E70">
+        <v>18614.080000000002</v>
+      </c>
+      <c r="F70">
+        <v>20849.490000000002</v>
+      </c>
+      <c r="G70">
+        <v>21843.24</v>
+      </c>
+      <c r="H70">
+        <v>25834.61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>22826.04</v>
+      </c>
+      <c r="D71">
+        <v>18405.59</v>
+      </c>
+      <c r="E71">
+        <v>19184.990000000002</v>
+      </c>
+      <c r="F71">
+        <v>21580.83</v>
+      </c>
+      <c r="G71">
+        <v>22493.81</v>
+      </c>
+      <c r="H71">
+        <v>26557.68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>23419.19</v>
+      </c>
+      <c r="D72">
+        <v>19001.97</v>
+      </c>
+      <c r="E72">
+        <v>19768.63</v>
+      </c>
+      <c r="F72">
+        <v>22289.38</v>
+      </c>
+      <c r="G72">
+        <v>23284.38</v>
+      </c>
+      <c r="H72">
+        <v>27462.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>23921.62</v>
+      </c>
+      <c r="D73">
+        <v>19299.38</v>
+      </c>
+      <c r="E73">
+        <v>20197</v>
+      </c>
+      <c r="F73">
+        <v>22710.3</v>
+      </c>
+      <c r="G73">
+        <v>23697.73</v>
+      </c>
+      <c r="H73">
+        <v>28062.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>24642.76</v>
+      </c>
+      <c r="D74">
+        <v>19824.23</v>
+      </c>
+      <c r="E74">
+        <v>20837.11</v>
+      </c>
+      <c r="F74">
+        <v>23377.18</v>
+      </c>
+      <c r="G74">
+        <v>24421.27</v>
+      </c>
+      <c r="H74">
+        <v>28931.85</v>
       </c>
     </row>
   </sheetData>

--- a/eph/canasta/canastas_eph.xlsx
+++ b/eph/canasta/canastas_eph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Paquete eph\data\eph\canasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9565EE1A-0984-474C-8F65-69A5E8A5AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D345D-DF6B-4F3D-9D30-853E3EE27E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,6 +69,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -89,18 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{8BCF715B-6292-4F74-BB37-A033FF874B83}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,1311 +418,1311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D74"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1367.11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1205.31</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1246.58</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1224.6400000000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1367.94</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1412.49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1420.09</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1246.17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1288.4100000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1269.25</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1418.83</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1465.19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1474.95</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1296.54</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1336.31</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1320.14</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1475.38</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1524.29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1512.07</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1332.49</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1370.11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1356.85</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1514.28</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>1560.38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1514.53</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1333.91</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1371.62</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1358.29</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>1514.96</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1556.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1561.35</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1369.37</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1404.27</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1398.2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1562.75</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1604.3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1614.32</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1413.77</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1447.63</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1445.22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>1614.33</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>1661.42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1666.48</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1458.24</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1496.21</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1494.04</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>1660.19</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>1713.67</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1675.05</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1459.38</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1501.91</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1496.09</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>1662.99</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>1723.86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>2016</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1711.22</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1498.62</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1540.68</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1536.29</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1705.31</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1767.89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1739.34</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1516.82</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1559.51</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1559</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1731.84</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1797.44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1762.65</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1532.67</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1573.18</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1577.67</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1753.27</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>1819.64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1766.62</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1526.86</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1571.59</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>1574.22</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1754.08</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>1822.96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>2017</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1789.15</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>1541.73</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1590.44</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1595.31</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>1777.09</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>1848.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>2017</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1821.02</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>1570.68</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1620.35</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1628.44</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1810.32</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>1882.42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1876.56</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1623.37</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1672.78</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>1681.49</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1863.58</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>1939.76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>2017</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1915.47</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1661.21</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1709.08</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1713.91</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1901.16</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>1975.67</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1937.24</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>1681.95</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1729.4</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1731.7</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>1922</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>1994.94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1956.42</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1698.68</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1743.77</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1747.95</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>1940.78</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>2012.13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>2017</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1984.64</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1718.31</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>1761.4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>1767.82</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>1965.17</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>2034.9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2021.98</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1756.04</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1796.81</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1805.99</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>2007.97</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>2074.38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>2017</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2049.39</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>1783.48</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1821.54</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1830.78</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2037.82</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>2101.7199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>2017</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>2079.23</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>1812.72</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1851.72</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>1860.27</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>2071.1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>2137.17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>2017</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2125.84</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1852.43</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>1895.81</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>1900.71</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>2117.11</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>2192.85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2017</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2150.29</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>1870.58</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>1917.87</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1920.79</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>2141.5100000000002</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>2221.58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2197.2600000000002</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>1915.21</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>1960.18</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>1966.81</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>2192.2199999999998</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>2271.64</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>2018</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>2261.23</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1969.15</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>2018.26</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>2022.41</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>2251.13</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>2343.56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2294.56</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>1996.76</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>2047.14</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>2048.4299999999998</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>2277.2199999999998</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>2367.11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>2018</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2308.11</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2000.01</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>2054.7600000000002</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>2054.7399999999998</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2284.59</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>2373.69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>2018</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2418.65</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>2088.54</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2153.6</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>2153.7800000000002</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>2389.73</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>2493.44</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>2018</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2537.4499999999998</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2199.69</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2262.6999999999998</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>2265.2600000000002</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>2508.4499999999998</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>2615.63</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>2018</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2627.37</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>2292.29</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>2349.38</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>2355.98</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>2606.91</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>2710.54</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>2018</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2701.48</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2361.61</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>2414.6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>2421.94</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>2683.06</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>2782.76</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>2018</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>2931.88</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>2557.36</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>2620.84</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>2622.96</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>2901.79</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>3015.31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2018</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>3150.62</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2738.89</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>2810.69</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>2819.87</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>3119.33</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>3242.01</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>2018</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>3276.02</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>2844.81</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>2922.84</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2934.83</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>3248.55</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>3387.27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>3300.17</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2852.75</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>2925.5</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>2942.7</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>3269.58</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>3393.87</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>2019</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>3423.03</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>2954.56</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>3033.1</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>3048.81</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>3392.7</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>3521.68</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>2019</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>3597.77</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>3111.35</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>3193.74</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>3198.47</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>3562.34</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>3694.36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>2019</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>3767.01</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>3270.34</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>3338.64</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>3342.65</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>3726.12</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>3850.73</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>2019</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>3833.28</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>3316.91</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>3386.24</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>3389.35</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>3779.39</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>3906.06</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>2019</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>3911.58</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>3382.58</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>3455.83</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>3456.88</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>3852.08</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>3986.32</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>4016.09</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>3490.67</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>3571.74</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>3571.23</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>3969.84</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>4122.05</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>2019</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>4133.91</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>3580.41</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>3667.14</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>3665.51</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>4079.86</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>4242.66</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>2019</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>4290.72</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>3734.47</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>3837.66</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>3810.58</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>4236.45</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>4440.51</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>2019</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>4502.88</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>3940.39</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>4054.18</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>4019.27</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>4452.3</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>4702.18</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>2019</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>4596.2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>4016.75</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>4128.29</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>4107.17</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>4553.55</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>4794.87</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>2019</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>4886.34</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>4287.16</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>4402.7</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>4373.5600000000004</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>4851.67</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>5090.92</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>2019</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>12</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>5043.41</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>4397.95</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>4518.72</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>4489.88</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>5004</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>5226.0200000000004</v>
       </c>
     </row>
@@ -1727,22 +1733,22 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>5332.94</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>4607.7416000000003</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>4750.3661199999997</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>4724.6665400000002</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>5276.4502400000001</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>5510.6090999999997</v>
       </c>
     </row>
@@ -1753,22 +1759,22 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>5432.32</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>4715.2335999999996</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>4877.3702599999997</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>4842.6139800000001</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>5389.07888</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>5661.4603500000003</v>
       </c>
     </row>
@@ -1779,22 +1785,22 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>5615.94</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>4903.2016000000003</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>5050.68426</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>5014.6057799999999</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>5586.2332800000004</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>5846.7771000000002</v>
       </c>
     </row>
@@ -1805,22 +1811,22 @@
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>5791.79</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>5032.9840000000004</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>5162.8624200000004</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>5128.7758299999996</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>5719.4883200000004</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>5972.4881999999998</v>
       </c>
     </row>
@@ -1831,22 +1837,22 @@
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>5785.01</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>5021.1216000000004</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>5149.7067200000001</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>5112.4250000000002</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>5705.4321600000003</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>5952.6162000000004</v>
       </c>
     </row>
@@ -1857,22 +1863,22 @@
       <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>5834.66</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>5074.0623999999998</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>5198.0011599999998</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>5159.4593100000002</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>5757.1067199999998</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>5997.4420499999997</v>
       </c>
     </row>
@@ -1883,22 +1889,22 @@
       <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>5929.29</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>5145.13</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>5289.67</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>5236.09</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>5838.43</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>6109.28</v>
       </c>
     </row>
@@ -1909,22 +1915,22 @@
       <c r="B58">
         <v>8</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>6081.69</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>5272.76</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>5432.89</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>5356.79</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>5981.63</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>6291.56</v>
       </c>
     </row>
@@ -1935,22 +1941,22 @@
       <c r="B59">
         <v>9</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>6288.17</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>5476.12</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>5632.44</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>5573.61</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>6214.79</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>6521.04</v>
       </c>
     </row>
@@ -1961,22 +1967,22 @@
       <c r="B60">
         <v>10</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>6702.33</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>5864.6</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>6014.33</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>5979.17</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>6671.74</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>6985.63</v>
       </c>
     </row>
@@ -1987,22 +1993,22 @@
       <c r="B61">
         <v>11</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>6981.61</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>6070.87</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>6239.72</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>6211.46</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>6937.09</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>7258.73</v>
       </c>
     </row>
@@ -2013,22 +2019,22 @@
       <c r="B62">
         <v>12</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>7340.12</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>6332.05</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>6575.43</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>6488.28</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>7267.36</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>7630.42</v>
       </c>
     </row>
@@ -2039,22 +2045,22 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>7677.09</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>6599.0293802615697</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>6897.5775994880196</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>6789.4619230786702</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>7606.3619736038299</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>8013.8035065578897</v>
       </c>
     </row>
@@ -2065,22 +2071,22 @@
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>7953.14</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>6845.7575999999999</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>7146.8317800000004</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>7033.9823999999999</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>7868.5892800000001</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>8302.3559999999998</v>
       </c>
     </row>
@@ -2091,22 +2097,22 @@
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>8312.33</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>7161.1671999999999</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>7462.0746799999997</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>7338.4239600000001</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>8204.2379199999996</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>8623.2784499999998</v>
       </c>
     </row>
@@ -2117,22 +2123,22 @@
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>8633.31</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>7430.1127999999999</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>7731.5555000000004</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>7582.7219699999996</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>8481.1886400000003</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>8892.8649000000005</v>
       </c>
     </row>
@@ -2143,22 +2149,22 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>8874.89</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>7664.1048000000001</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>7975.0033000000003</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>7820.0010000000002</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>8727.9030399999992</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>9132.3328500000007</v>
       </c>
     </row>
@@ -2169,22 +2175,22 @@
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>9195.41</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>7922.3760000000002</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>8224.4407599999995</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>8079.1228099999998</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>9016.88976</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>9411.4827000000005</v>
       </c>
     </row>
@@ -2342,6 +2348,162 @@
       </c>
       <c r="H74">
         <v>11042.69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>11111.27</v>
+      </c>
+      <c r="D75">
+        <v>9682.16</v>
+      </c>
+      <c r="E75">
+        <v>10056.799999999999</v>
+      </c>
+      <c r="F75">
+        <v>9931.6200000000008</v>
+      </c>
+      <c r="G75">
+        <v>11064.23</v>
+      </c>
+      <c r="H75">
+        <v>11503.89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>12108.08</v>
+      </c>
+      <c r="D76">
+        <v>10580.02</v>
+      </c>
+      <c r="E76">
+        <v>11017.95</v>
+      </c>
+      <c r="F76">
+        <v>10904.91</v>
+      </c>
+      <c r="G76">
+        <v>12102.32</v>
+      </c>
+      <c r="H76">
+        <v>12651.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>12900.45</v>
+      </c>
+      <c r="D77">
+        <v>11285.9</v>
+      </c>
+      <c r="E77">
+        <v>11695.46</v>
+      </c>
+      <c r="F77">
+        <v>11572.78</v>
+      </c>
+      <c r="G77">
+        <v>12842.78</v>
+      </c>
+      <c r="H77">
+        <v>13377.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>13762.77</v>
+      </c>
+      <c r="D78">
+        <v>11978.51</v>
+      </c>
+      <c r="E78">
+        <v>12399.09</v>
+      </c>
+      <c r="F78">
+        <v>12266.18</v>
+      </c>
+      <c r="G78">
+        <v>13622.26</v>
+      </c>
+      <c r="H78">
+        <v>14188.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>14400.84</v>
+      </c>
+      <c r="D79">
+        <v>12536.73</v>
+      </c>
+      <c r="E79">
+        <v>13005.65</v>
+      </c>
+      <c r="F79">
+        <v>12822.27</v>
+      </c>
+      <c r="G79">
+        <v>14239.99</v>
+      </c>
+      <c r="H79">
+        <v>14885.59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>15056.75</v>
+      </c>
+      <c r="D80">
+        <v>13093.57</v>
+      </c>
+      <c r="E80">
+        <v>13583.26</v>
+      </c>
+      <c r="F80">
+        <v>13463.58</v>
+      </c>
+      <c r="G80">
+        <v>14906.95</v>
+      </c>
+      <c r="H80">
+        <v>15569.67</v>
       </c>
     </row>
   </sheetData>
@@ -2352,1319 +2514,1311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2.27</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2.1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2.12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>2.41</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>2.27</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>2.57</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2.11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2.13</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2.42</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2.58</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.31</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2.15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.17</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2.46</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2.31</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2.63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2.16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2.46</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2.31</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>2.62</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.42</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2.58</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2.42</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>2.61</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>2.78</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.44</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.27</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2.29</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2.44</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2.42</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.25</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>2.27</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>2.58</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>2.42</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.41</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2.57</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2.41</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2016</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.39</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>2.39</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>2.71</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2.41</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2.57</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>2.41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.41</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.23</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2.25</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>2.56</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>2.41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>2.73</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2.41</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>2.57</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>2.41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2017</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2.41</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>2.57</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>2.41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2017</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2.59</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>2.76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>2.25</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>2.27</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>2.58</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>2.75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>2017</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>2.27</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>2.29</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>2.6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>2.44</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>2.78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>2.27</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2.29</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>2.61</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>2.78</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>2.61</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>2.79</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>2017</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2.61</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>2.78</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2.44</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>2.6</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>2.44</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>2.77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>2017</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2.44</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>2.27</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>2.29</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>2.6</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2.44</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>2.77</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>2017</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>2.44</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>2.27</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>2.29</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>2.6</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>2.44</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>2.77</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>2017</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2.44</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>2.27</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>2.29</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>2.6</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>2.44</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>2.77</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2017</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>2.33</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>2.35</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>2.68</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>2.85</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2.5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>2.34</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>2.66</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>2.5</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>2.83</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>2018</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>2.33</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>2.35</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>2.67</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>2.85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2.52</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>2.34</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>2.36</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>2.68</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>2.52</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>2.86</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>2018</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.56</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2.37</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>2.39</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>2.72</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2.56</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>2.9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>2018</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.52</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>2.34</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2.36</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>2.68</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>2.52</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>2.86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>2018</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>2.34</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>2.66</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>2.5</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>2018</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>2.48</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>2.64</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>2.48</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>2.81</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>2018</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2.5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>2.34</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>2.66</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>2.5</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>2018</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>2.31</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>2.33</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>2.65</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>2.83</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2018</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2.31</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>2.33</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>2.65</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>2.82</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>2018</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>2.31</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>2.33</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2.65</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>2.82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>2.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>2.34</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>2.66</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>2.5</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>2019</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>2.5</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>2.34</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>2.66</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>2.5</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>2019</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>2.48</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>2.64</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>2.48</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>2.82</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>2019</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>2.63</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>2.81</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>2019</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>2.31</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>2.34</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>2.66</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>2.83</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>2019</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>2.33</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>2.35</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>2.67</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>2.33</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2.35</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>2.68</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>2.85</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>2019</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>2.5</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>2.34</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>2.66</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>2.5</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>2019</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>2.31</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>2.33</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>2.65</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>2.83</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>2019</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>2.5</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>2.34</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>2.66</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>2.5</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>2.84</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>2019</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>2.33</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>2.35</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>2.67</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>2.85</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>2019</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>2.31</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>2.33</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>2.65</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>2.48</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>2.82</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>2019</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>12</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>2.5</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>2.34</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>2.66</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>2.5</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>2.84</v>
       </c>
     </row>
@@ -4290,6 +4444,162 @@
       </c>
       <c r="H74">
         <v>2.62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2.29</v>
+      </c>
+      <c r="D75">
+        <v>2.13</v>
+      </c>
+      <c r="E75">
+        <v>2.15</v>
+      </c>
+      <c r="F75">
+        <v>2.44</v>
+      </c>
+      <c r="G75">
+        <v>2.29</v>
+      </c>
+      <c r="H75">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D76">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E76">
+        <v>2.09</v>
+      </c>
+      <c r="F76">
+        <v>2.38</v>
+      </c>
+      <c r="G76">
+        <v>2.23</v>
+      </c>
+      <c r="H76">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2.25</v>
+      </c>
+      <c r="D77">
+        <v>2.08</v>
+      </c>
+      <c r="E77">
+        <v>2.1</v>
+      </c>
+      <c r="F77">
+        <v>2.39</v>
+      </c>
+      <c r="G77">
+        <v>2.25</v>
+      </c>
+      <c r="H77">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D78">
+        <v>2.08</v>
+      </c>
+      <c r="E78">
+        <v>2.09</v>
+      </c>
+      <c r="F78">
+        <v>2.38</v>
+      </c>
+      <c r="G78">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H78">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D79">
+        <v>2.08</v>
+      </c>
+      <c r="E79">
+        <v>2.1</v>
+      </c>
+      <c r="F79">
+        <v>2.39</v>
+      </c>
+      <c r="G79">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H79">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D80">
+        <v>2.08</v>
+      </c>
+      <c r="E80">
+        <v>2.1</v>
+      </c>
+      <c r="F80">
+        <v>2.39</v>
+      </c>
+      <c r="G80">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H80">
+        <v>2.5499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4300,1319 +4610,1311 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3103.34</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2531.15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2642.75</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>2951.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>3105.22</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>3630.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3237.81</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2629.42</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2744.31</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3071.59</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>3234.93</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3780.19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3407.13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2787.56</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2899.79</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3247.54</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3408.13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>4008.88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3492.88</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2851.53</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2959.44</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3337.85</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>3497.99</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>4088.2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3665.16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2987.96</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3099.86</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3504.39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3666.2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>4281.6400000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3825.31</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3122.16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>3229.82</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>3649.3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3828.74</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>4459.95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3938.94</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>3209.26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3315.07</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>3757.57</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3938.97</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>4602.13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4032.88</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>3281.04</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>3396.4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3854.62</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>4017.66</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>4712.59</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>4036.87</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>3269.01</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>3394.32</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>3844.95</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>4007.81</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>4723.38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2016</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>4089.82</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>3326.94</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>3451.12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3917.54</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>4075.69</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>4790.9799999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>4191.8100000000004</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>3397.68</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>3524.49</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>4006.63</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>4173.7299999999996</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>4924.99</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4247.99</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3417.85</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>3539.66</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>4038.84</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>4225.38</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>4967.62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>4257.55</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3420.17</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>3551.79</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>4045.75</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>4227.33</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>4994.91</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2017</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>4311.8500000000004</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>3453.48</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>3594.39</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>4099.95</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>4282.79</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>5064.8900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2017</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4425.08</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>3549.74</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>3694.4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>4217.66</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>4399.08</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>5195.4799999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>4560.04</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>3652.58</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>3797.21</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>4338.24</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>4528.5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>5334.34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>2017</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>4692.8999999999996</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>3770.95</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>3913.79</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>4456.17</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>4638.83</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>5492.36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>4746.24</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3818.03</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>3960.33</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>4519.74</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>4708.8999999999996</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>5545.93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4793.2299999999996</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3872.99</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>4010.67</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>4562.1499999999996</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>4754.91</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>5613.84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>2017</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>4862.37</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>3917.75</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>4051.22</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>4614.01</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>4814.67</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>5657.02</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>2017</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>4933.63</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>3968.65</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>4096.7299999999996</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>4695.57</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>4899.45</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>5746.03</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>2017</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>5000.51</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>4048.5</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>4171.33</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>4760.03</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>4972.28</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>5821.76</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>2017</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>5073.32</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>4114.87</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>4240.4399999999996</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>4836.7</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>5053.4799999999996</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>5919.96</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>2017</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>5187.05</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>4205.0200000000004</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>4341.3999999999996</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>4941.8500000000004</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>5165.75</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>6074.19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2017</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>5397.23</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>4358.45</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>4506.99</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>5147.72</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>5375.19</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>6331.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>2018</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>5493.15</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>4443.29</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>4586.82</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>5231.71</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>5480.55</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>6428.74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>2018</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>5675.69</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>4588.12</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>4742.91</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>5399.83</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>5650.34</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>6679.15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>2018</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>5782.29</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>4672.42</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>4831.25</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>5489.79</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>5738.59</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>6769.93</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>2018</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>5908.76</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>4740.0200000000004</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4910.88</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>5588.89</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>5848.55</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>6883.7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>2018</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>6095</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>4887.18</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>5082.5</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>5772.13</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>6022.12</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>7131.24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>2018</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>6343.63</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>5103.28</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>5294.72</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>6025.59</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>6271.13</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>7428.39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>2018</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>6515.88</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>5272.27</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>5450.56</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>6219.79</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>6465.14</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>7616.62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>2018</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>6753.7</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>5478.94</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>5650.16</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>6442.36</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>6707.65</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>7903.04</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>2018</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>7300.38</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>5907.5</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>6106.56</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>6950.84</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>7225.46</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>8533.33</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2018</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>7845.04</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>6326.84</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>6548.91</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>7472.66</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>7767.13</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>9142.4699999999993</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>2018</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>8157.29</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>6571.51</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>6810.22</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>7777.3</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>8088.89</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>9552.1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>2018</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>8250.43</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>6618.38</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>6845.67</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>7827.58</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>8173.95</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>9638.59</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>2019</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>8557.58</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>6854.58</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>7097.45</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>8109.83</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>8481.75</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>10001.57</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>2019</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>8922.4699999999993</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>7156.11</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>7409.48</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>8443.9599999999991</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>8834.6</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>10418.1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>2019</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>9304.51</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>7521.78</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>7745.64</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>8791.17</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>9203.52</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>10820.55</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>2019</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>9544.8700000000008</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>7662.06</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>7923.8</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>9015.67</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>9410.68</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>11054.15</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>2019</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>9818.07</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>7881.41</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>8121.2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>9229.8700000000008</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>9668.7199999999993</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>11321.15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>10080.39</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>8133.26</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>8393.59</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>9570.9</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>9964.2999999999993</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>11747.84</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>2019</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>10334.780000000001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>8306.5499999999993</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>8581.11</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>9750.26</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>10199.65</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>12049.15</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>2019</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>10683.89</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>8626.6299999999992</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>8941.75</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>10098.040000000001</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>10548.76</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>12566.64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>2019</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>11257.2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>9141.7000000000007</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>9486.7800000000007</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>10691.26</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>11130.75</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>13354.19</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>2019</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>11536.46</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>9359.0300000000007</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>9701.48</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>10966.14</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>11429.41</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>13665.38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>2019</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>12166.99</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>9903.34</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>10258.290000000001</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>11589.93</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>12032.14</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>14356.39</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>2019</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>12</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>12608.53</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>10203.24</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>10573.8</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>11943.08</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>12510</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>14841.9</v>
       </c>
     </row>
@@ -6238,6 +6540,162 @@
       </c>
       <c r="H74">
         <v>28931.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>25444.81</v>
+      </c>
+      <c r="D75">
+        <v>20623</v>
+      </c>
+      <c r="E75">
+        <v>21622.12</v>
+      </c>
+      <c r="F75">
+        <v>24233.15</v>
+      </c>
+      <c r="G75">
+        <v>25337.09</v>
+      </c>
+      <c r="H75">
+        <v>29910.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>27122.1</v>
+      </c>
+      <c r="D76">
+        <v>21900.639999999999</v>
+      </c>
+      <c r="E76">
+        <v>23027.52</v>
+      </c>
+      <c r="F76">
+        <v>25953.69</v>
+      </c>
+      <c r="G76">
+        <v>26988.17</v>
+      </c>
+      <c r="H76">
+        <v>32135.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>29026.01</v>
+      </c>
+      <c r="D77">
+        <v>23474.67</v>
+      </c>
+      <c r="E77">
+        <v>24560.47</v>
+      </c>
+      <c r="F77">
+        <v>27658.94</v>
+      </c>
+      <c r="G77">
+        <v>28896.26</v>
+      </c>
+      <c r="H77">
+        <v>34113.870000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>30828.6</v>
+      </c>
+      <c r="D78">
+        <v>24915.3</v>
+      </c>
+      <c r="E78">
+        <v>25914.1</v>
+      </c>
+      <c r="F78">
+        <v>29193.51</v>
+      </c>
+      <c r="G78">
+        <v>30513.86</v>
+      </c>
+      <c r="H78">
+        <v>36037.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>32257.88</v>
+      </c>
+      <c r="D79">
+        <v>26076.400000000001</v>
+      </c>
+      <c r="E79">
+        <v>27311.87</v>
+      </c>
+      <c r="F79">
+        <v>30645.23</v>
+      </c>
+      <c r="G79">
+        <v>31897.58</v>
+      </c>
+      <c r="H79">
+        <v>37809.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>33727.120000000003</v>
+      </c>
+      <c r="D80">
+        <v>27234.63</v>
+      </c>
+      <c r="E80">
+        <v>28524.85</v>
+      </c>
+      <c r="F80">
+        <v>32177.96</v>
+      </c>
+      <c r="G80">
+        <v>33391.57</v>
+      </c>
+      <c r="H80">
+        <v>39702.660000000003</v>
       </c>
     </row>
   </sheetData>
